--- a/datos/semaforo/5septiembre/Reportesdecovid-1904092020semaforo.xlsx
+++ b/datos/semaforo/5septiembre/Reportesdecovid-1904092020semaforo.xlsx
@@ -1441,7 +1441,7 @@
         <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4119F67-0349-473B-8C20-50916CB8ED8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4119F67-0349-473B-8C20-50916CB8ED8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1808,7 +1808,7 @@
   <dimension ref="A1:V356"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
